--- a/base_vendas.xlsx
+++ b/base_vendas.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruno\Desktop\Bootcamp Santander\_Projetos\Criando Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B999669-A49E-431F-8750-9FDBFBE2D573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1BD4B4-B575-4519-896E-C7468E0CA37F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28665" yWindow="-135" windowWidth="29070" windowHeight="16020" activeTab="3" xr2:uid="{28DD5B76-0634-4F87-BE60-8BFA7EF2E23B}"/>
+    <workbookView xWindow="28665" yWindow="-135" windowWidth="29070" windowHeight="16020" firstSheet="3" activeTab="3" xr2:uid="{28DD5B76-0634-4F87-BE60-8BFA7EF2E23B}"/>
   </bookViews>
   <sheets>
-    <sheet name="A̳ssets" sheetId="1" r:id="rId1"/>
-    <sheet name="B̳ases" sheetId="2" r:id="rId2"/>
-    <sheet name="C̳álculos" sheetId="3" r:id="rId3"/>
+    <sheet name="A̳ssets" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="B̳ases" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="C̳álculos" sheetId="3" state="hidden" r:id="rId3"/>
     <sheet name="D̳ashboard" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2060" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2061" uniqueCount="332">
   <si>
     <t>Paleta de Cores</t>
   </si>
@@ -1141,19 +1141,19 @@
     </r>
   </si>
   <si>
-    <t>Soma de Subscription Price</t>
-  </si>
-  <si>
-    <t>Soma de EA Play Season Pass</t>
-  </si>
-  <si>
-    <t>Soma de Minecraft Season Pass Price</t>
-  </si>
-  <si>
     <t>XBOX GAMES PASS SUBSCRIPTION SALES</t>
   </si>
   <si>
-    <t>(Vários itens)</t>
+    <t xml:space="preserve">EA Play Season Pass </t>
+  </si>
+  <si>
+    <t>Main Subscription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minecraft Season Pass </t>
+  </si>
+  <si>
+    <t>Calculation period: 01/01/2024 to 31/12/2024</t>
   </si>
 </sst>
 </file>
@@ -1308,7 +1308,211 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Título 1" xfId="1" builtinId="16"/>
   </cellStyles>
-  <dxfs count="72">
+  <dxfs count="118">
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
@@ -1425,72 +1629,6 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1543,27 +1681,27 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Estilo de Segmentação de Dados 1" pivot="0" table="0" count="4" xr9:uid="{939C61F8-B2DA-47C9-9FE9-1C65515A4C3B}">
-      <tableStyleElement type="wholeTable" dxfId="31"/>
-      <tableStyleElement type="headerRow" dxfId="30"/>
+      <tableStyleElement type="wholeTable" dxfId="99"/>
+      <tableStyleElement type="headerRow" dxfId="98"/>
     </tableStyle>
   </tableStyles>
   <colors>
     <mruColors>
-      <color rgb="FF2AE6B1"/>
       <color rgb="FF5BF6A8"/>
       <color rgb="FF22C55E"/>
+      <color rgb="FF9BC848"/>
       <color rgb="FFE8E6E9"/>
+      <color rgb="FF2AE6B1"/>
       <color rgb="FF000000"/>
       <color rgb="FFE0E0E0"/>
       <color rgb="FFEDEDED"/>
       <color rgb="FFF7F8FC"/>
-      <color rgb="FF9BC848"/>
       <color rgb="FFE70011"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{46F421CA-312F-682f-3DD2-61675219B42D}">
-      <x14:dxfs count="9">
+      <x14:dxfs count="2">
         <dxf>
           <fill>
             <patternFill>
@@ -1575,55 +1713,6 @@
           <fill>
             <patternFill>
               <bgColor rgb="FF5BF6A8"/>
-            </patternFill>
-          </fill>
-        </dxf>
-        <dxf>
-          <fill>
-            <patternFill>
-              <bgColor rgb="FF5BF6A8"/>
-            </patternFill>
-          </fill>
-        </dxf>
-        <dxf>
-          <fill>
-            <patternFill>
-              <bgColor rgb="FF5BF6A8"/>
-            </patternFill>
-          </fill>
-        </dxf>
-        <dxf>
-          <fill>
-            <patternFill>
-              <bgColor rgb="FF2AE6B1"/>
-            </patternFill>
-          </fill>
-        </dxf>
-        <dxf>
-          <fill>
-            <patternFill>
-              <bgColor rgb="FF5BF6A8"/>
-            </patternFill>
-          </fill>
-        </dxf>
-        <dxf>
-          <fill>
-            <patternFill>
-              <bgColor rgb="FF2AE6B1"/>
-            </patternFill>
-          </fill>
-        </dxf>
-        <dxf>
-          <fill>
-            <patternFill>
-              <bgColor rgb="FF5BF6A8"/>
-            </patternFill>
-          </fill>
-        </dxf>
-        <dxf>
-          <fill>
-            <patternFill>
-              <bgColor rgb="FF2AE6B1"/>
             </patternFill>
           </fill>
         </dxf>
@@ -1684,13 +1773,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Planos</a:t>
+              <a:rPr lang="pt-BR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t>Most Subscribed Plans</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> mais assinados</a:t>
-            </a:r>
+            <a:endParaRPr lang="en-US" baseline="0"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1948,13 +2034,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2148,9 +2234,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Assinaturas com Renovação Automática</a:t>
+              <a:rPr lang="pt-BR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t>Auto-Renewing Subscriptions</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2405,10 +2492,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>17</c:v>
+                  <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18</c:v>
+                  <c:v>148</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2859,10 +2946,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>23</c:v>
+                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3313,10 +3400,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23</c:v>
+                  <c:v>194</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3472,6 +3559,1006 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[base_vendas.xlsx]C̳álculos!tbl_value_plans</c:name>
+    <c:fmtId val="4"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t>Subscription Plan Prices</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="9BC848"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="22C55E"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="5BF6A8"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>C̳álculos!$H$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Main Subscription</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="9BC848"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>C̳álculos!$G$19:$G$22</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Core</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Standard</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Ultimate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>C̳álculos!$H$19:$H$22</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>505</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1470</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D493-408F-B722-12C2AFDB97EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>C̳álculos!$I$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EA Play Season Pass </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="22C55E"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>C̳álculos!$G$19:$G$22</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Core</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Standard</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Ultimate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>C̳álculos!$I$19:$I$22</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2940</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D493-408F-B722-12C2AFDB97EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>C̳álculos!$J$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Minecraft Season Pass </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="5BF6A8"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>C̳álculos!$G$19:$G$22</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Core</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Standard</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Ultimate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>C̳álculos!$J$19:$J$22</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1920</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1960</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D493-408F-B722-12C2AFDB97EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2038196624"/>
+        <c:axId val="2038211024"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2038196624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2038211024"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2038211024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;R$&quot;* #,##0.00_);_(&quot;R$&quot;* \(#,##0.00\);_(&quot;R$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2038196624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3593,6 +4680,46 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5644,6 +6771,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -6396,8 +8026,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1158241</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1143</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>134493</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6448,7 +8078,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>36195</xdr:rowOff>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -6485,7 +8115,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="883920"/>
-              <a:ext cx="1828800" cy="695325"/>
+              <a:ext cx="1828800" cy="697230"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -6526,7 +8156,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>1812077</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>100965</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -6562,8 +8192,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2" y="1564003"/>
-              <a:ext cx="1808265" cy="3701417"/>
+              <a:off x="2" y="1592578"/>
+              <a:ext cx="1808265" cy="3695702"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -6640,7 +8270,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="5303520"/>
+              <a:off x="0" y="5332095"/>
               <a:ext cx="1828800" cy="1457326"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -6676,13 +8306,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>16192</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>86676</xdr:rowOff>
+      <xdr:rowOff>63816</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>317182</xdr:colOff>
+      <xdr:colOff>324802</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>120966</xdr:rowOff>
+      <xdr:rowOff>96201</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6711,16 +8341,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>93345</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>249555</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>321945</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>139065</xdr:rowOff>
+      <xdr:rowOff>125730</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6787,16 +8417,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>382905</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>459105</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>62865</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>236640</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>314745</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>88905</xdr:rowOff>
+      <xdr:rowOff>102240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6818,6 +8448,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>478155</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>100965</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Gráfico 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAFC82F9-3572-4CBA-AD8A-15505B283524}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -12234,7 +13902,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4BAC7C3C-D797-4B0D-BEA4-6BF1B970B1C6}" name="tbl_value_plans" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4BAC7C3C-D797-4B0D-BEA4-6BF1B970B1C6}" name="tbl_value_plans" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="G18:J22" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="15">
     <pivotField showAll="0"/>
@@ -12258,22 +13926,22 @@
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="4"/>
-        <item h="1" x="5"/>
-        <item h="1" x="6"/>
-        <item h="1" x="7"/>
-        <item h="1" x="8"/>
-        <item h="1" x="9"/>
-        <item h="1" x="10"/>
-        <item h="1" x="11"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField numFmtId="14" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField dataField="1" numFmtId="44" showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="4">
         <item x="1"/>
         <item x="0"/>
@@ -12325,12 +13993,12 @@
     <pageField fld="8" hier="-1"/>
   </pageFields>
   <dataFields count="3">
-    <dataField name="Soma de Subscription Price" fld="7" baseField="0" baseItem="0" numFmtId="44"/>
-    <dataField name="Soma de EA Play Season Pass" fld="10" baseField="2" baseItem="0"/>
-    <dataField name="Soma de Minecraft Season Pass Price" fld="12" baseField="0" baseItem="0" numFmtId="44"/>
+    <dataField name="Main Subscription" fld="7" baseField="2" baseItem="0" numFmtId="44"/>
+    <dataField name="EA Play Season Pass " fld="10" baseField="2" baseItem="0"/>
+    <dataField name="Minecraft Season Pass " fld="12" baseField="2" baseItem="0" numFmtId="44"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="55">
+    <format dxfId="101">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -12340,7 +14008,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="54">
+    <format dxfId="100">
       <pivotArea field="2" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -12350,6 +14018,62 @@
       </pivotArea>
     </format>
   </formats>
+  <chartFormats count="6">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -12387,15 +14111,15 @@
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="4"/>
-        <item h="1" x="5"/>
-        <item h="1" x="6"/>
-        <item h="1" x="7"/>
-        <item h="1" x="8"/>
-        <item h="1" x="9"/>
-        <item h="1" x="10"/>
-        <item h="1" x="11"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -12408,7 +14132,7 @@
       </items>
     </pivotField>
     <pivotField numFmtId="44" showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="4">
         <item x="1"/>
         <item x="0"/>
@@ -12460,26 +14184,8 @@
   <dataFields count="1">
     <dataField name="Contagem de Minecraft Season Pass" fld="11" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="4">
+  <chartFormats count="2">
     <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -12535,15 +14241,15 @@
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="4"/>
-        <item h="1" x="5"/>
-        <item h="1" x="6"/>
-        <item h="1" x="7"/>
-        <item h="1" x="8"/>
-        <item h="1" x="9"/>
-        <item h="1" x="10"/>
-        <item h="1" x="11"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -12556,7 +14262,7 @@
       </items>
     </pivotField>
     <pivotField numFmtId="44" showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="4">
         <item x="1"/>
         <item x="0"/>
@@ -12608,16 +14314,7 @@
   <dataFields count="1">
     <dataField name="Contagem de EA Play Season Pass" fld="9" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
+  <chartFormats count="1">
     <chartFormat chart="4" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -12665,15 +14362,15 @@
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="4"/>
-        <item h="1" x="5"/>
-        <item h="1" x="6"/>
-        <item h="1" x="7"/>
-        <item h="1" x="8"/>
-        <item h="1" x="9"/>
-        <item h="1" x="10"/>
-        <item h="1" x="11"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -12686,7 +14383,7 @@
       </items>
     </pivotField>
     <pivotField numFmtId="44" showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="4">
         <item x="1"/>
         <item x="0"/>
@@ -12726,16 +14423,7 @@
   <dataFields count="1">
     <dataField name="Contagem de Auto Renewal" fld="6" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
+  <chartFormats count="1">
     <chartFormat chart="4" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -12783,15 +14471,15 @@
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="4"/>
-        <item h="1" x="5"/>
-        <item h="1" x="6"/>
-        <item h="1" x="7"/>
-        <item h="1" x="8"/>
-        <item h="1" x="9"/>
-        <item h="1" x="10"/>
-        <item h="1" x="11"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -13096,7 +14784,7 @@
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField numFmtId="44" showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="4">
         <item x="1"/>
         <item x="0"/>
@@ -13196,15 +14884,15 @@
         <i x="0" s="1"/>
         <i x="1" s="1"/>
         <i x="2" s="1"/>
-        <i x="3"/>
-        <i x="4"/>
-        <i x="5"/>
-        <i x="6"/>
-        <i x="7"/>
-        <i x="8"/>
-        <i x="9"/>
-        <i x="10"/>
-        <i x="11"/>
+        <i x="3" s="1"/>
+        <i x="4" s="1"/>
+        <i x="5" s="1"/>
+        <i x="6" s="1"/>
+        <i x="7" s="1"/>
+        <i x="8" s="1"/>
+        <i x="9" s="1"/>
+        <i x="10" s="1"/>
+        <i x="11" s="1"/>
       </items>
     </tabular>
   </data>
@@ -13241,7 +14929,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{34E0E886-4200-4B36-97B3-63DB74FF40A0}" name="Tabela1" displayName="Tabela1" ref="A1:O296" totalsRowShown="0" dataDxfId="71">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{34E0E886-4200-4B36-97B3-63DB74FF40A0}" name="Tabela1" displayName="Tabela1" ref="A1:O296" totalsRowShown="0" dataDxfId="117">
   <autoFilter ref="A1:O296" xr:uid="{34E0E886-4200-4B36-97B3-63DB74FF40A0}">
     <filterColumn colId="11">
       <filters>
@@ -13250,25 +14938,25 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{C4A90516-688A-46BF-9167-EA16C2A8A652}" name="Subscriber ID" dataDxfId="70"/>
-    <tableColumn id="2" xr3:uid="{53DD39D0-2220-4121-9E9D-4EAA7E151C0F}" name="Name" dataDxfId="69"/>
-    <tableColumn id="3" xr3:uid="{4F5FF271-4C57-4BE0-8F2C-F82C8551625C}" name="Plan" dataDxfId="68"/>
-    <tableColumn id="15" xr3:uid="{E07C5652-2E5C-49E6-BFC9-ACE3165B74D6}" name="Year" dataDxfId="56">
+    <tableColumn id="1" xr3:uid="{C4A90516-688A-46BF-9167-EA16C2A8A652}" name="Subscriber ID" dataDxfId="116"/>
+    <tableColumn id="2" xr3:uid="{53DD39D0-2220-4121-9E9D-4EAA7E151C0F}" name="Name" dataDxfId="115"/>
+    <tableColumn id="3" xr3:uid="{4F5FF271-4C57-4BE0-8F2C-F82C8551625C}" name="Plan" dataDxfId="114"/>
+    <tableColumn id="15" xr3:uid="{E07C5652-2E5C-49E6-BFC9-ACE3165B74D6}" name="Year" dataDxfId="102">
       <calculatedColumnFormula>YEAR(Tabela1[[#This Row],[Start Date]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{815015B2-DAAA-4F70-9275-94435043B58C}" name="Month" dataDxfId="57">
+    <tableColumn id="14" xr3:uid="{815015B2-DAAA-4F70-9275-94435043B58C}" name="Month" dataDxfId="103">
       <calculatedColumnFormula>CONCATENATE(TEXT(MONTH(Tabela1[[#This Row],[Start Date]]),"00"),"/",YEAR(Tabela1[[#This Row],[Start Date]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8C17EB93-79B9-4E55-B8F7-BEB82F8253E9}" name="Start Date" dataDxfId="67"/>
-    <tableColumn id="5" xr3:uid="{48CEDF9B-1689-482A-A828-5CCE7713264A}" name="Auto Renewal" dataDxfId="66"/>
-    <tableColumn id="6" xr3:uid="{78B82374-9AA7-4E38-AE4F-78CDE6C83720}" name="Subscription Price" dataDxfId="65" dataCellStyle="Moeda"/>
-    <tableColumn id="7" xr3:uid="{F2433F68-AF33-49D0-B1FB-19A396074EDE}" name="Subscription Type" dataDxfId="64"/>
-    <tableColumn id="8" xr3:uid="{FD4D9C95-F6E5-4933-9068-A71FF7DF9343}" name="EA Play Season Pass" dataDxfId="63"/>
-    <tableColumn id="13" xr3:uid="{978DD0D2-834E-4CE4-A39B-30976086932F}" name="EA Play Season Pass_x000a_Price" dataDxfId="62" dataCellStyle="Moeda"/>
-    <tableColumn id="9" xr3:uid="{6E29F111-C395-4580-9DAD-3407D9E8B1A4}" name="Minecraft Season Pass" dataDxfId="61"/>
-    <tableColumn id="10" xr3:uid="{EF544EAA-7F25-4FD5-A10E-8E62804DB9E3}" name="Minecraft Season Pass Price" dataDxfId="60" dataCellStyle="Moeda"/>
-    <tableColumn id="11" xr3:uid="{7F6EB64A-1F07-4E48-9F0F-AC7D9DCD26F8}" name="Coupon Value" dataDxfId="59" dataCellStyle="Moeda"/>
-    <tableColumn id="12" xr3:uid="{2B04ABC8-DE6F-426E-ADC0-D8AFC68CA58E}" name="Total Value" dataDxfId="58" dataCellStyle="Moeda"/>
+    <tableColumn id="4" xr3:uid="{8C17EB93-79B9-4E55-B8F7-BEB82F8253E9}" name="Start Date" dataDxfId="113"/>
+    <tableColumn id="5" xr3:uid="{48CEDF9B-1689-482A-A828-5CCE7713264A}" name="Auto Renewal" dataDxfId="112"/>
+    <tableColumn id="6" xr3:uid="{78B82374-9AA7-4E38-AE4F-78CDE6C83720}" name="Subscription Price" dataDxfId="111" dataCellStyle="Moeda"/>
+    <tableColumn id="7" xr3:uid="{F2433F68-AF33-49D0-B1FB-19A396074EDE}" name="Subscription Type" dataDxfId="110"/>
+    <tableColumn id="8" xr3:uid="{FD4D9C95-F6E5-4933-9068-A71FF7DF9343}" name="EA Play Season Pass" dataDxfId="109"/>
+    <tableColumn id="13" xr3:uid="{978DD0D2-834E-4CE4-A39B-30976086932F}" name="EA Play Season Pass_x000a_Price" dataDxfId="108" dataCellStyle="Moeda"/>
+    <tableColumn id="9" xr3:uid="{6E29F111-C395-4580-9DAD-3407D9E8B1A4}" name="Minecraft Season Pass" dataDxfId="107"/>
+    <tableColumn id="10" xr3:uid="{EF544EAA-7F25-4FD5-A10E-8E62804DB9E3}" name="Minecraft Season Pass Price" dataDxfId="106" dataCellStyle="Moeda"/>
+    <tableColumn id="11" xr3:uid="{7F6EB64A-1F07-4E48-9F0F-AC7D9DCD26F8}" name="Coupon Value" dataDxfId="105" dataCellStyle="Moeda"/>
+    <tableColumn id="12" xr3:uid="{2B04ABC8-DE6F-426E-ADC0-D8AFC68CA58E}" name="Total Value" dataDxfId="104" dataCellStyle="Moeda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13597,7 +15285,7 @@
   <dimension ref="B3:P21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13770,7 +15458,7 @@
   <dimension ref="A1:O296"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28311,7 +29999,7 @@
   <dimension ref="C2:J31"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28321,9 +30009,9 @@
     <col min="5" max="5" width="33.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="35" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="37.21875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="36.109375" bestFit="1" customWidth="1"/>
@@ -28360,13 +30048,13 @@
         <v>317</v>
       </c>
       <c r="D4" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>317</v>
       </c>
       <c r="H4" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.3">
@@ -28402,13 +30090,13 @@
         <v>22</v>
       </c>
       <c r="D8" s="14">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="G8" s="13" t="s">
         <v>23</v>
       </c>
       <c r="H8" s="14">
-        <v>12</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.3">
@@ -28416,13 +30104,13 @@
         <v>26</v>
       </c>
       <c r="D9" s="14">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="G9" s="13" t="s">
         <v>19</v>
       </c>
       <c r="H9" s="14">
-        <v>23</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.3">
@@ -28430,13 +30118,13 @@
         <v>18</v>
       </c>
       <c r="D10" s="14">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="G10" s="13" t="s">
         <v>314</v>
       </c>
       <c r="H10" s="14">
-        <v>35</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.3">
@@ -28444,7 +30132,7 @@
         <v>314</v>
       </c>
       <c r="D11" s="14">
-        <v>35</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13" spans="3:8" x14ac:dyDescent="0.3">
@@ -28474,13 +30162,13 @@
         <v>317</v>
       </c>
       <c r="D15" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>317</v>
       </c>
       <c r="H15" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
     </row>
     <row r="16" spans="3:8" x14ac:dyDescent="0.3">
@@ -28508,13 +30196,13 @@
         <v>313</v>
       </c>
       <c r="H18" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="I18" t="s">
         <v>328</v>
       </c>
       <c r="J18" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.3">
@@ -28522,13 +30210,13 @@
         <v>23</v>
       </c>
       <c r="D19" s="14">
-        <v>17</v>
+        <v>147</v>
       </c>
       <c r="G19" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H19" s="16">
-        <v>60</v>
+        <v>505</v>
       </c>
       <c r="I19" s="16">
         <v>0</v>
@@ -28542,19 +30230,19 @@
         <v>19</v>
       </c>
       <c r="D20" s="14">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="G20" s="13" t="s">
         <v>26</v>
       </c>
       <c r="H20" s="16">
-        <v>110</v>
+        <v>960</v>
       </c>
       <c r="I20" s="16">
         <v>0</v>
       </c>
       <c r="J20" s="16">
-        <v>220</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="21" spans="3:10" x14ac:dyDescent="0.3">
@@ -28562,19 +30250,19 @@
         <v>314</v>
       </c>
       <c r="D21" s="14">
-        <v>35</v>
+        <v>295</v>
       </c>
       <c r="G21" s="13" t="s">
         <v>18</v>
       </c>
       <c r="H21" s="16">
-        <v>180</v>
+        <v>1470</v>
       </c>
       <c r="I21" s="16">
-        <v>360</v>
+        <v>2940</v>
       </c>
       <c r="J21" s="16">
-        <v>240</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="22" spans="3:10" x14ac:dyDescent="0.3">
@@ -28582,13 +30270,13 @@
         <v>314</v>
       </c>
       <c r="H22" s="16">
-        <v>350</v>
+        <v>2935</v>
       </c>
       <c r="I22" s="16">
-        <v>360</v>
+        <v>2940</v>
       </c>
       <c r="J22" s="16">
-        <v>460</v>
+        <v>3880</v>
       </c>
     </row>
     <row r="23" spans="3:10" x14ac:dyDescent="0.3">
@@ -28609,7 +30297,7 @@
         <v>317</v>
       </c>
       <c r="D25" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
     </row>
     <row r="26" spans="3:10" x14ac:dyDescent="0.3">
@@ -28633,7 +30321,7 @@
         <v>23</v>
       </c>
       <c r="D29" s="14">
-        <v>23</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="3:10" x14ac:dyDescent="0.3">
@@ -28641,7 +30329,7 @@
         <v>19</v>
       </c>
       <c r="D30" s="14">
-        <v>12</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="3:10" x14ac:dyDescent="0.3">
@@ -28649,7 +30337,7 @@
         <v>314</v>
       </c>
       <c r="D31" s="14">
-        <v>35</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -28660,10 +30348,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{210F14EF-C0B7-459D-9E09-3130BA4314A6}">
-  <dimension ref="A2:Y50"/>
+  <dimension ref="A2:Z53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28673,9 +30361,9 @@
     <col min="11" max="11" width="6.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:25" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:26" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C2" s="17" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
@@ -28699,43 +30387,47 @@
       <c r="W2" s="17"/>
       <c r="X2" s="17"/>
       <c r="Y2" s="17"/>
-    </row>
-    <row r="3" spans="1:25" ht="8.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:25" ht="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:25" s="7" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Z2" s="17"/>
+    </row>
+    <row r="3" spans="1:26" ht="8.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:26" ht="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:26" s="7" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
-    </row>
-    <row r="6" spans="1:25" s="7" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="7" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" s="7" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
     </row>
-    <row r="7" spans="1:25" s="7" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" s="7" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
     </row>
-    <row r="8" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
     </row>
-    <row r="9" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
     </row>
-    <row r="10" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
     </row>
-    <row r="11" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
     </row>
-    <row r="12" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
     </row>
-    <row r="13" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
     </row>
-    <row r="14" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
     </row>
-    <row r="15" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
     </row>
-    <row r="16" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
     </row>
     <row r="17" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -28839,6 +30531,15 @@
     </row>
     <row r="50" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4"/>
+    </row>
+    <row r="51" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="4"/>
+    </row>
+    <row r="52" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="4"/>
+    </row>
+    <row r="53" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/base_vendas.xlsx
+++ b/base_vendas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruno\Desktop\Bootcamp Santander\_Projetos\Criando Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1BD4B4-B575-4519-896E-C7468E0CA37F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01693491-4DC9-47C7-82D6-56F61736B120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28665" yWindow="-135" windowWidth="29070" windowHeight="16020" firstSheet="3" activeTab="3" xr2:uid="{28DD5B76-0634-4F87-BE60-8BFA7EF2E23B}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2061" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2061" uniqueCount="333">
   <si>
     <t>Paleta de Cores</t>
   </si>
@@ -1142,6 +1142,9 @@
   </si>
   <si>
     <t>XBOX GAMES PASS SUBSCRIPTION SALES</t>
+  </si>
+  <si>
+    <t>(Vários itens)</t>
   </si>
   <si>
     <t xml:space="preserve">EA Play Season Pass </t>
@@ -1308,7 +1311,13 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Título 1" xfId="1" builtinId="16"/>
   </cellStyles>
-  <dxfs count="118">
+  <dxfs count="120">
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
@@ -1681,8 +1690,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Estilo de Segmentação de Dados 1" pivot="0" table="0" count="4" xr9:uid="{939C61F8-B2DA-47C9-9FE9-1C65515A4C3B}">
-      <tableStyleElement type="wholeTable" dxfId="99"/>
-      <tableStyleElement type="headerRow" dxfId="98"/>
+      <tableStyleElement type="wholeTable" dxfId="101"/>
+      <tableStyleElement type="headerRow" dxfId="100"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1968,8 +1977,9 @@
               <a:endParaRPr lang="pt-BR"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -2010,6 +2020,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>C̳álculos!$C$8:$C$11</c:f>
@@ -2034,13 +2102,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>101</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>96</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>98</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2388,7 +2456,9 @@
         <c:idx val="2"/>
         <c:spPr>
           <a:solidFill>
-            <a:srgbClr val="5BF6A8"/>
+            <a:srgbClr val="5BF6A8">
+              <a:alpha val="98000"/>
+            </a:srgbClr>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -2429,8 +2499,9 @@
               <a:endParaRPr lang="pt-BR"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -2463,7 +2534,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="5BF6A8"/>
+              <a:srgbClr val="5BF6A8">
+                <a:alpha val="98000"/>
+              </a:srgbClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2471,6 +2544,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>C̳álculos!$C$19:$C$21</c:f>
@@ -2492,10 +2623,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>147</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>148</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2507,8 +2638,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="inBase"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -2527,7 +2659,7 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -2574,16 +2706,19 @@
         <c:axId val="2035392240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="160"/>
+          <c:min val="100"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="359943040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2883,8 +3018,9 @@
               <a:endParaRPr lang="pt-BR"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -2925,6 +3061,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>C̳álculos!$C$29:$C$31</c:f>
@@ -2946,10 +3140,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>197</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>98</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3337,8 +3531,9 @@
               <a:endParaRPr lang="pt-BR"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -3379,6 +3574,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>C̳álculos!$G$8:$G$10</c:f>
@@ -3400,10 +3653,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>101</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>194</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4194,13 +4447,13 @@
                 <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>505</c:v>
+                  <c:v>345</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>960</c:v>
+                  <c:v>660</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1470</c:v>
+                  <c:v>1020</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4265,7 +4518,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2940</c:v>
+                  <c:v>2040</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4327,10 +4580,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1920</c:v>
+                  <c:v>1320</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1960</c:v>
+                  <c:v>1360</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8339,7 +8592,7 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>472440</xdr:colOff>
@@ -8377,7 +8630,7 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
@@ -8415,7 +8668,7 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>459105</xdr:colOff>
@@ -8453,7 +8706,7 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>478155</xdr:colOff>
@@ -13927,9 +14180,9 @@
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
+        <item h="1" x="4"/>
+        <item h="1" x="5"/>
+        <item h="1" x="6"/>
         <item x="7"/>
         <item x="8"/>
         <item x="9"/>
@@ -13998,7 +14251,7 @@
     <dataField name="Minecraft Season Pass " fld="12" baseField="2" baseItem="0" numFmtId="44"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="101">
+    <format dxfId="103">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -14008,7 +14261,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="100">
+    <format dxfId="102">
       <pivotArea field="2" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -14018,34 +14271,7 @@
       </pivotArea>
     </format>
   </formats>
-  <chartFormats count="6">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
+  <chartFormats count="3">
     <chartFormat chart="4" format="6" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -14112,9 +14338,9 @@
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
+        <item h="1" x="4"/>
+        <item h="1" x="5"/>
+        <item h="1" x="6"/>
         <item x="7"/>
         <item x="8"/>
         <item x="9"/>
@@ -14184,16 +14410,7 @@
   <dataFields count="1">
     <dataField name="Contagem de Minecraft Season Pass" fld="11" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
+  <chartFormats count="1">
     <chartFormat chart="4" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -14217,7 +14434,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6A05AA8A-A031-46F2-8061-A5699356F9F4}" name="tbl_ea_season_pass" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6A05AA8A-A031-46F2-8061-A5699356F9F4}" name="tbl_ea_season_pass" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="C28:D31" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="15">
     <pivotField showAll="0"/>
@@ -14242,9 +14459,9 @@
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
+        <item h="1" x="4"/>
+        <item h="1" x="5"/>
+        <item h="1" x="6"/>
         <item x="7"/>
         <item x="8"/>
         <item x="9"/>
@@ -14363,9 +14580,9 @@
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
+        <item h="1" x="4"/>
+        <item h="1" x="5"/>
+        <item h="1" x="6"/>
         <item x="7"/>
         <item x="8"/>
         <item x="9"/>
@@ -14472,9 +14689,9 @@
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
+        <item h="1" x="4"/>
+        <item h="1" x="5"/>
+        <item h="1" x="6"/>
         <item x="7"/>
         <item x="8"/>
         <item x="9"/>
@@ -14885,9 +15102,9 @@
         <i x="1" s="1"/>
         <i x="2" s="1"/>
         <i x="3" s="1"/>
-        <i x="4" s="1"/>
-        <i x="5" s="1"/>
-        <i x="6" s="1"/>
+        <i x="4"/>
+        <i x="5"/>
+        <i x="6"/>
         <i x="7" s="1"/>
         <i x="8" s="1"/>
         <i x="9" s="1"/>
@@ -14929,7 +15146,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{34E0E886-4200-4B36-97B3-63DB74FF40A0}" name="Tabela1" displayName="Tabela1" ref="A1:O296" totalsRowShown="0" dataDxfId="117">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{34E0E886-4200-4B36-97B3-63DB74FF40A0}" name="Tabela1" displayName="Tabela1" ref="A1:O296" totalsRowShown="0" dataDxfId="119">
   <autoFilter ref="A1:O296" xr:uid="{34E0E886-4200-4B36-97B3-63DB74FF40A0}">
     <filterColumn colId="11">
       <filters>
@@ -14938,25 +15155,25 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{C4A90516-688A-46BF-9167-EA16C2A8A652}" name="Subscriber ID" dataDxfId="116"/>
-    <tableColumn id="2" xr3:uid="{53DD39D0-2220-4121-9E9D-4EAA7E151C0F}" name="Name" dataDxfId="115"/>
-    <tableColumn id="3" xr3:uid="{4F5FF271-4C57-4BE0-8F2C-F82C8551625C}" name="Plan" dataDxfId="114"/>
-    <tableColumn id="15" xr3:uid="{E07C5652-2E5C-49E6-BFC9-ACE3165B74D6}" name="Year" dataDxfId="102">
+    <tableColumn id="1" xr3:uid="{C4A90516-688A-46BF-9167-EA16C2A8A652}" name="Subscriber ID" dataDxfId="118"/>
+    <tableColumn id="2" xr3:uid="{53DD39D0-2220-4121-9E9D-4EAA7E151C0F}" name="Name" dataDxfId="117"/>
+    <tableColumn id="3" xr3:uid="{4F5FF271-4C57-4BE0-8F2C-F82C8551625C}" name="Plan" dataDxfId="116"/>
+    <tableColumn id="15" xr3:uid="{E07C5652-2E5C-49E6-BFC9-ACE3165B74D6}" name="Year" dataDxfId="104">
       <calculatedColumnFormula>YEAR(Tabela1[[#This Row],[Start Date]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{815015B2-DAAA-4F70-9275-94435043B58C}" name="Month" dataDxfId="103">
+    <tableColumn id="14" xr3:uid="{815015B2-DAAA-4F70-9275-94435043B58C}" name="Month" dataDxfId="105">
       <calculatedColumnFormula>CONCATENATE(TEXT(MONTH(Tabela1[[#This Row],[Start Date]]),"00"),"/",YEAR(Tabela1[[#This Row],[Start Date]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8C17EB93-79B9-4E55-B8F7-BEB82F8253E9}" name="Start Date" dataDxfId="113"/>
-    <tableColumn id="5" xr3:uid="{48CEDF9B-1689-482A-A828-5CCE7713264A}" name="Auto Renewal" dataDxfId="112"/>
-    <tableColumn id="6" xr3:uid="{78B82374-9AA7-4E38-AE4F-78CDE6C83720}" name="Subscription Price" dataDxfId="111" dataCellStyle="Moeda"/>
-    <tableColumn id="7" xr3:uid="{F2433F68-AF33-49D0-B1FB-19A396074EDE}" name="Subscription Type" dataDxfId="110"/>
-    <tableColumn id="8" xr3:uid="{FD4D9C95-F6E5-4933-9068-A71FF7DF9343}" name="EA Play Season Pass" dataDxfId="109"/>
-    <tableColumn id="13" xr3:uid="{978DD0D2-834E-4CE4-A39B-30976086932F}" name="EA Play Season Pass_x000a_Price" dataDxfId="108" dataCellStyle="Moeda"/>
-    <tableColumn id="9" xr3:uid="{6E29F111-C395-4580-9DAD-3407D9E8B1A4}" name="Minecraft Season Pass" dataDxfId="107"/>
-    <tableColumn id="10" xr3:uid="{EF544EAA-7F25-4FD5-A10E-8E62804DB9E3}" name="Minecraft Season Pass Price" dataDxfId="106" dataCellStyle="Moeda"/>
-    <tableColumn id="11" xr3:uid="{7F6EB64A-1F07-4E48-9F0F-AC7D9DCD26F8}" name="Coupon Value" dataDxfId="105" dataCellStyle="Moeda"/>
-    <tableColumn id="12" xr3:uid="{2B04ABC8-DE6F-426E-ADC0-D8AFC68CA58E}" name="Total Value" dataDxfId="104" dataCellStyle="Moeda"/>
+    <tableColumn id="4" xr3:uid="{8C17EB93-79B9-4E55-B8F7-BEB82F8253E9}" name="Start Date" dataDxfId="115"/>
+    <tableColumn id="5" xr3:uid="{48CEDF9B-1689-482A-A828-5CCE7713264A}" name="Auto Renewal" dataDxfId="114"/>
+    <tableColumn id="6" xr3:uid="{78B82374-9AA7-4E38-AE4F-78CDE6C83720}" name="Subscription Price" dataDxfId="113" dataCellStyle="Moeda"/>
+    <tableColumn id="7" xr3:uid="{F2433F68-AF33-49D0-B1FB-19A396074EDE}" name="Subscription Type" dataDxfId="112"/>
+    <tableColumn id="8" xr3:uid="{FD4D9C95-F6E5-4933-9068-A71FF7DF9343}" name="EA Play Season Pass" dataDxfId="111"/>
+    <tableColumn id="13" xr3:uid="{978DD0D2-834E-4CE4-A39B-30976086932F}" name="EA Play Season Pass_x000a_Price" dataDxfId="110" dataCellStyle="Moeda"/>
+    <tableColumn id="9" xr3:uid="{6E29F111-C395-4580-9DAD-3407D9E8B1A4}" name="Minecraft Season Pass" dataDxfId="109"/>
+    <tableColumn id="10" xr3:uid="{EF544EAA-7F25-4FD5-A10E-8E62804DB9E3}" name="Minecraft Season Pass Price" dataDxfId="108" dataCellStyle="Moeda"/>
+    <tableColumn id="11" xr3:uid="{7F6EB64A-1F07-4E48-9F0F-AC7D9DCD26F8}" name="Coupon Value" dataDxfId="107" dataCellStyle="Moeda"/>
+    <tableColumn id="12" xr3:uid="{2B04ABC8-DE6F-426E-ADC0-D8AFC68CA58E}" name="Total Value" dataDxfId="106" dataCellStyle="Moeda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -30048,13 +30265,13 @@
         <v>317</v>
       </c>
       <c r="D4" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>317</v>
       </c>
       <c r="H4" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.3">
@@ -30090,13 +30307,13 @@
         <v>22</v>
       </c>
       <c r="D8" s="14">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="G8" s="13" t="s">
         <v>23</v>
       </c>
       <c r="H8" s="14">
-        <v>101</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.3">
@@ -30104,13 +30321,13 @@
         <v>26</v>
       </c>
       <c r="D9" s="14">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="G9" s="13" t="s">
         <v>19</v>
       </c>
       <c r="H9" s="14">
-        <v>194</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.3">
@@ -30118,13 +30335,13 @@
         <v>18</v>
       </c>
       <c r="D10" s="14">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="G10" s="13" t="s">
         <v>314</v>
       </c>
       <c r="H10" s="14">
-        <v>295</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.3">
@@ -30132,7 +30349,7 @@
         <v>314</v>
       </c>
       <c r="D11" s="14">
-        <v>295</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="3:8" x14ac:dyDescent="0.3">
@@ -30162,13 +30379,13 @@
         <v>317</v>
       </c>
       <c r="D15" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>317</v>
       </c>
       <c r="H15" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
     </row>
     <row r="16" spans="3:8" x14ac:dyDescent="0.3">
@@ -30196,13 +30413,13 @@
         <v>313</v>
       </c>
       <c r="H18" t="s">
+        <v>330</v>
+      </c>
+      <c r="I18" t="s">
         <v>329</v>
       </c>
-      <c r="I18" t="s">
-        <v>328</v>
-      </c>
       <c r="J18" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.3">
@@ -30210,13 +30427,13 @@
         <v>23</v>
       </c>
       <c r="D19" s="14">
-        <v>147</v>
+        <v>101</v>
       </c>
       <c r="G19" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H19" s="16">
-        <v>505</v>
+        <v>345</v>
       </c>
       <c r="I19" s="16">
         <v>0</v>
@@ -30230,19 +30447,19 @@
         <v>19</v>
       </c>
       <c r="D20" s="14">
-        <v>148</v>
+        <v>102</v>
       </c>
       <c r="G20" s="13" t="s">
         <v>26</v>
       </c>
       <c r="H20" s="16">
-        <v>960</v>
+        <v>660</v>
       </c>
       <c r="I20" s="16">
         <v>0</v>
       </c>
       <c r="J20" s="16">
-        <v>1920</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="21" spans="3:10" x14ac:dyDescent="0.3">
@@ -30250,19 +30467,19 @@
         <v>314</v>
       </c>
       <c r="D21" s="14">
-        <v>295</v>
+        <v>203</v>
       </c>
       <c r="G21" s="13" t="s">
         <v>18</v>
       </c>
       <c r="H21" s="16">
-        <v>1470</v>
+        <v>1020</v>
       </c>
       <c r="I21" s="16">
-        <v>2940</v>
+        <v>2040</v>
       </c>
       <c r="J21" s="16">
-        <v>1960</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="22" spans="3:10" x14ac:dyDescent="0.3">
@@ -30270,13 +30487,13 @@
         <v>314</v>
       </c>
       <c r="H22" s="16">
-        <v>2935</v>
+        <v>2025</v>
       </c>
       <c r="I22" s="16">
-        <v>2940</v>
+        <v>2040</v>
       </c>
       <c r="J22" s="16">
-        <v>3880</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="23" spans="3:10" x14ac:dyDescent="0.3">
@@ -30297,7 +30514,7 @@
         <v>317</v>
       </c>
       <c r="D25" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
     </row>
     <row r="26" spans="3:10" x14ac:dyDescent="0.3">
@@ -30321,7 +30538,7 @@
         <v>23</v>
       </c>
       <c r="D29" s="14">
-        <v>197</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="3:10" x14ac:dyDescent="0.3">
@@ -30329,7 +30546,7 @@
         <v>19</v>
       </c>
       <c r="D30" s="14">
-        <v>98</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="3:10" x14ac:dyDescent="0.3">
@@ -30337,7 +30554,7 @@
         <v>314</v>
       </c>
       <c r="D31" s="14">
-        <v>295</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -30351,7 +30568,7 @@
   <dimension ref="A2:Z53"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30394,7 +30611,7 @@
     <row r="5" spans="1:26" s="7" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="C5" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:26" s="7" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
